--- a/data/hotels_by_city/Dallas/Dallas_shard_610.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_610.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,417 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r468503558-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>98785</t>
+  </si>
+  <si>
+    <t>468503558</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>Rooms are trash. Bathroom was nasty.Free breakfast if you pay $7.00. I couldn't even get coffee unless I paid $7.00.Stayed a week at $37.00 per night. Had to extend my stay by one night and my card was charged $85.00 .Manager claimed I had to pay the weekend rate.Lots of late nite parking lot activity. Drunks. Loud music. Etc..These people are greedy and I see now why the motel was practically empty.Do yourself a favor. Stay elsewhere.What the idiot manager failed to understand was I was with a crew of 6 staying there that has to come back later for a 3 month stay and we will NOT be staying there.I will see to that.That's the cost of being greedy.  For a few dollars you lost several thousand.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rooms are trash. Bathroom was nasty.Free breakfast if you pay $7.00. I couldn't even get coffee unless I paid $7.00.Stayed a week at $37.00 per night. Had to extend my stay by one night and my card was charged $85.00 .Manager claimed I had to pay the weekend rate.Lots of late nite parking lot activity. Drunks. Loud music. Etc..These people are greedy and I see now why the motel was practically empty.Do yourself a favor. Stay elsewhere.What the idiot manager failed to understand was I was with a crew of 6 staying there that has to come back later for a 3 month stay and we will NOT be staying there.I will see to that.That's the cost of being greedy.  For a few dollars you lost several thousand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r437871302-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>437871302</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>Any port in a storm</t>
+  </si>
+  <si>
+    <t>I was desperate to find somewhere to stay. It was a Sunday night and all the decent hotels were booked up due to a NASCAR race weekend. This place had rooms available (not surprised). Very old motel type with rooms on the outside. I was on the second floor, no lift and heavy bags. Booked in by unfriendly person. Room was shabby and bedding unironred. Wouldn't have stayed here but for the fact I was exhausted. Was going to do some washing until I saw the machine room. Got up early and left without breakfast, wouldn't chance it. Do not stay here until major refurbishment. It wasn't even cheap.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r416226342-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>416226342</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good location. </t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because we had a wedding near by to go too. The hotel was close to lots of restaurants. The staff was friendly. The hotel was okay. It seemed a little outdated.  The bed was comfortable and the AC worked great. The room wasn't in the greatest shape. The refrigerator must have been defrosted or something because the carpet was wet.  The racks holding the towels were rusted. One towel had black marks on it, like leftover mascara or something.  There were holes in the wall around the mirror that had packets of something shoved into them. They really just need to renovate and properly fix wall holes. It wasn't the best room but def not the worst I've stayed in either.  Good if you are looking for a budget hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because we had a wedding near by to go too. The hotel was close to lots of restaurants. The staff was friendly. The hotel was okay. It seemed a little outdated.  The bed was comfortable and the AC worked great. The room wasn't in the greatest shape. The refrigerator must have been defrosted or something because the carpet was wet.  The racks holding the towels were rusted. One towel had black marks on it, like leftover mascara or something.  There were holes in the wall around the mirror that had packets of something shoved into them. They really just need to renovate and properly fix wall holes. It wasn't the best room but def not the worst I've stayed in either.  Good if you are looking for a budget hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r372697703-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>372697703</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Treated the way I believe they would want to be Treated</t>
+  </si>
+  <si>
+    <t>My business has me stay at a lot of Hotels, The Quality Inn , 1500 Dallas, in Denton , Texas is my Favorite places to REST. I'm treated by people who CARE, and will do ALL they can to make my stay the Best it can be.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r367370347-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>367370347</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Tried to put us in a smoking room.  Stated online booking services book for rooms they do not have.  Room  needs paint.  Bathroom was gross.  Room smelled ok.  The rates for this room were cheaper than nicer places.  It was tolerable for a stay that we were not going to be spending much time in the room.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r365340128-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>365340128</t>
+  </si>
+  <si>
+    <t>04/19/2016</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very pleased with my stay(s) at this hotel.  Staff was courteous and professional. Excellent free breakfast.  The room was clean and comfortable.  The bathroom was well stocked with toiletries.  Favorite thing was the breakfast least favorite was the TV programming offered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r331714671-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>331714671</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Horrible left with 15 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I traveled to Denton TX from MD. When I arrived and checked in I noticed how run down the hotel is and the musty smell. Once I got in my room the room was very noisy and I just couldn't relax, neither could my Labrador. I pulled back the the top blanket and the sheets had not been changed..... We were out of there. On a good note the front desk help was really nice to deal with. I didn't even have to ask for a refund..... </t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r325556658-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>325556658</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>HOTEL IS GETTING RUN DOWN</t>
+  </si>
+  <si>
+    <t>Have stayed there the last several years but this stay I noticed the hotel was not the same. The towels and wash clothes were old and wore out. The room was very dirty as well the parking  lot and exterior. The breakfast buffet was not very well stocked and there was a sign up both days that said we were running low on eggs and please only take a small amount. The room was not very clean. The shower, tub, walls, and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room. The towels did smell clean but they were stained or very thin in places.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Have stayed there the last several years but this stay I noticed the hotel was not the same. The towels and wash clothes were old and wore out. The room was very dirty as well the parking  lot and exterior. The breakfast buffet was not very well stocked and there was a sign up both days that said we were running low on eggs and please only take a small amount. The room was not very clean. The shower, tub, walls, and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room. The towels did smell clean but they were stained or very thin in places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r315412675-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>315412675</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Not Quality by my standards</t>
+  </si>
+  <si>
+    <t>The room was not very clean.  The shower, tub, walls,  and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room.   The towels did smell clean but they were stained or very thin in places.  The coffee pot had built up calcium around the water area. On the better side, the bed was very comfortable,  Staff, while not rude, seemed to do the bare minimum and they were not outgoing or friendly.  Not a quality stay in my book though and will not stay at this one , again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>The room was not very clean.  The shower, tub, walls,  and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room.   The towels did smell clean but they were stained or very thin in places.  The coffee pot had built up calcium around the water area. On the better side, the bed was very comfortable,  Staff, while not rude, seemed to do the bare minimum and they were not outgoing or friendly.  Not a quality stay in my book though and will not stay at this one , again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r286270060-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>286270060</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Will never stay here again</t>
+  </si>
+  <si>
+    <t>I have stayed at many Quality Inns across the nation and i have always been satisfied with the price and quality of each location however,  this location was very disappointing. The man that handled my check in process was very rude, simply handed me the key and sent me on my way, instead the usual hotel orientation i am acustomed to (i.e. breakfast hours and location, check out time, pool hours and location), also didn't bother telling me that the number he wrote on the breakfast card was the wifi password. Now i get to the room and thefirst thing I see  is a very large spider on the wall. Furthermore the carpet was crunchy and the carpet tacks were completely exposed at the bathroom doorway. For a room thats supposed accommodate 4 it only had enough towels for 1. In summary the Quality Inn chain has lost my trust.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at many Quality Inns across the nation and i have always been satisfied with the price and quality of each location however,  this location was very disappointing. The man that handled my check in process was very rude, simply handed me the key and sent me on my way, instead the usual hotel orientation i am acustomed to (i.e. breakfast hours and location, check out time, pool hours and location), also didn't bother telling me that the number he wrote on the breakfast card was the wifi password. Now i get to the room and thefirst thing I see  is a very large spider on the wall. Furthermore the carpet was crunchy and the carpet tacks were completely exposed at the bathroom doorway. For a room thats supposed accommodate 4 it only had enough towels for 1. In summary the Quality Inn chain has lost my trust.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r281578666-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>281578666</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Worn and unpleasant</t>
+  </si>
+  <si>
+    <t>I remember staying here 1998 when it was a Holiday Inn, so for fun I decided to give it a try for a night, not expecting much. Well, I am sure some things are still from the Holiday Inn era at this Quality Inn, because it really shows its age.And it's not run very professionally. Check-in took what seemed forever. To even get into the breakfast area you have to present a coupon to the "breakfast police". Seems to be owned/run by non-Americans. Simply an unpleasant experience. Maybe this would be OK for $50 but I paid $74.99. Won't be back.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r257108898-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>257108898</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Not bad at all</t>
+  </si>
+  <si>
+    <t>Got in very late, about 3am, but still was able to check in.  Front desk lady very nice and patient with me.  Slept only a few hours, but still slept very well.Clean and comfortable and quiet.  Complimentary breakfast slightly better than expected.  Good price, very close to UNT.One complaint: the curtains for the windows are translucent and not very private--I saw several people sleeping in their rooms with the lamp on as I was walking to my own room.Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r238608235-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>238608235</t>
+  </si>
+  <si>
+    <t>11/07/2014</t>
+  </si>
+  <si>
+    <t>Fabulous customer service</t>
+  </si>
+  <si>
+    <t>Nice hotel in nice area.  Room was spacious and clean.  What set them apart in my book is the superb customer service they provided.  We missed breakfast by 5 minutes.  They brought all the food back out and checked to see if there was anything else they coutd do.  We had vehicle issues and they were gracious enough to let us fix the vehicle in the parking lot and allowed us a late checkout time give us time to clean up.  Very rarely do you see this kind of customer service anymore and i commend them for theirs. Will definitely stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r225728348-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>225728348</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>Not My Favorite Quality Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We rented a single bed room for 1 night as we needed a first floor room and door to the parking lot, what we call "down and out". It was small, especially traveling with 2 pets, but we were thankful to find a pet friendly hotel. Not the cleanest room but the sheets and towels were clean. We would probably stay there again if we needed a room for the night in Denton. </t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r221831400-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>221831400</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Very good value, great staff</t>
+  </si>
+  <si>
+    <t>A very good hotel for the price.  The staff there was great, very helpful anytime I needed anything.  While not new, the room was very clean, and housekeeping staff did a great job.  The breakfast was pretty good, and actually served in a nice-sized room (usually everyone's stumbling all over each other in a cramped space which was not the case here).  I will definitely stay here next time I visit Denton.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r207613255-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>207613255</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Showing it's Age</t>
+  </si>
+  <si>
+    <t>Stayed here one night before a trip to San Antonio.  The rooms were okay and clean but very dated and in need of renovation.  It has good onsite parking for large vehicles (I drive motor coaches) however, both entrances have steep inclines and you can only enter thru the back unless you want to drag.  The hotel lobby is dark and musty smelling.  I left before breakfast.  Location is good and right off the interstate.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r184304516-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>184304516</t>
+  </si>
+  <si>
+    <t>11/10/2013</t>
+  </si>
+  <si>
+    <t>Very deceiving!!!</t>
+  </si>
+  <si>
+    <t>This place was terrible!!! The pictures online were very deceiving .... So we decided to call before booking and was told that it was a newer hotel and also that it was only 2 miles from Texas Motor Speedway. Both were lies....it was far from being even close to new and the Speedway was over 15 miles away. The lobby was nice and that that was about it. The stairs getting to our room were a hassle. In addition, you had to be very careful because of obstacles on the wall etc. Then, our room was in much need of repairs. The lamp was broken with wiring exposed, the phone didn't work, and there wasn't a lock on the adjoining door. Our daughter stayed in another room and she didn't even have a lock on her door. Needless to say, we cancelled our reservation for the other two days and moved to another hotel. I definitely would NOT recommend this hotel!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>This place was terrible!!! The pictures online were very deceiving .... So we decided to call before booking and was told that it was a newer hotel and also that it was only 2 miles from Texas Motor Speedway. Both were lies....it was far from being even close to new and the Speedway was over 15 miles away. The lobby was nice and that that was about it. The stairs getting to our room were a hassle. In addition, you had to be very careful because of obstacles on the wall etc. Then, our room was in much need of repairs. The lamp was broken with wiring exposed, the phone didn't work, and there wasn't a lock on the adjoining door. Our daughter stayed in another room and she didn't even have a lock on her door. Needless to say, we cancelled our reservation for the other two days and moved to another hotel. I definitely would NOT recommend this hotel!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r184011617-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>184011617</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Slipping Favorite in Denton, TX</t>
+  </si>
+  <si>
+    <t>Over several years I've favored the Quality Inn in Denton because it is a good location, reasonably priced, good service and great breakfast. After having not been there for just over a year, we booked a 3 day stay recently and was somewhat disappointed in that the place is starting to really show it's age.  Even the once fantastic breakfast bar is now only good.  This is not to say that the place is not a good stay, just that it has lost the excellence it once had. I'm hoping to find some improvement by the next time I stay there.  An example of one of the little things that used to be a nice "extra" was having carafes of coffee with several bottles of Torani syrups available along with a popcorn machine.  Now gone! Service was very good with the exception of the young lady in charge of the breakfast room who seemed to be more interested in dozing off that checking the food line.  The desk clerk was very efficient and courteous.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Over several years I've favored the Quality Inn in Denton because it is a good location, reasonably priced, good service and great breakfast. After having not been there for just over a year, we booked a 3 day stay recently and was somewhat disappointed in that the place is starting to really show it's age.  Even the once fantastic breakfast bar is now only good.  This is not to say that the place is not a good stay, just that it has lost the excellence it once had. I'm hoping to find some improvement by the next time I stay there.  An example of one of the little things that used to be a nice "extra" was having carafes of coffee with several bottles of Torani syrups available along with a popcorn machine.  Now gone! Service was very good with the exception of the young lady in charge of the breakfast room who seemed to be more interested in dozing off that checking the food line.  The desk clerk was very efficient and courteous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r155845237-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>155845237</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>Under New Management</t>
+  </si>
+  <si>
+    <t>I've been staying here twice a year for six years and in the past few years it had really seemed to be declining. On my last check in I was informed that they were under new management. The changes were immediately noticeable. My room was very cleanly, the front desk staff was friendly and very helpful, and most importantly the parking lot was well-lit, which it hadn't been in the past. Robert was especially helpful and very professional. I was very impressed and look forward to continuing to stay here.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r152459656-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>152459656</t>
+  </si>
+  <si>
+    <t>02/18/2013</t>
+  </si>
+  <si>
+    <t>Good value, helpful staff</t>
+  </si>
+  <si>
+    <t>Informed at checkin that all king units were suffering with hot water issues, I opted for room with 2 fulls. Worked fine for this trip.Much more of a lobby than at most Quality Inns.Easy on/off to I35. Conveniently located.I would suggest a room on the Dallas Drive side of the property. The I35 side must be very noisy.Will definitely stay here when next my travels take me to Denton.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r150608916-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>150608916</t>
+  </si>
+  <si>
+    <t>01/25/2013</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>The location is difficult to reach if you are traveling from the south.  There is room for a truck and trailer to park, but it is hard to access the parking lot.  The clerk was extremely helpful.  She even promised to save a room without a card when we called to inquire about parking.  The lobby is impressive!  The room itself was roomy and the king size bed was nice.  The room had an overwhelming smoke odor that was hard to withstand.  The bathroom also had the usual hairs that one hates to encounter.  However, for $50, this was hard to beat.  There were many breakfast choices and the clerk sent several faxes at no charge.  For the price, this was a great value. MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is difficult to reach if you are traveling from the south.  There is room for a truck and trailer to park, but it is hard to access the parking lot.  The clerk was extremely helpful.  She even promised to save a room without a card when we called to inquire about parking.  The lobby is impressive!  The room itself was roomy and the king size bed was nice.  The room had an overwhelming smoke odor that was hard to withstand.  The bathroom also had the usual hairs that one hates to encounter.  However, for $50, this was hard to beat.  There were many breakfast choices and the clerk sent several faxes at no charge.  For the price, this was a great value. More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1059,1315 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+      <c r="O10" t="s">
+        <v>107</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>129</v>
+      </c>
+      <c r="K14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>132</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>138</v>
+      </c>
+      <c r="O15" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L18" t="s">
+        <v>154</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>68</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>169</v>
+      </c>
+      <c r="O21" t="s">
+        <v>68</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_610.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_610.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Dwight B</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>Rooms are trash. Bathroom was nasty.Free breakfast if you pay $7.00. I couldn't even get coffee unless I paid $7.00.Stayed a week at $37.00 per night. Had to extend my stay by one night and my card was charged $85.00 .Manager claimed I had to pay the weekend rate.Lots of late nite parking lot activity. Drunks. Loud music. Etc..These people are greedy and I see now why the motel was practically empty.Do yourself a favor. Stay elsewhere.What the idiot manager failed to understand was I was with a crew of 6 staying there that has to come back later for a 3 month stay and we will NOT be staying there.I will see to that.That's the cost of being greedy.  For a few dollars you lost several thousand.More</t>
   </si>
   <si>
+    <t>pops272</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r437871302-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>hwhite1283</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r416226342-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>We stayed at this hotel because we had a wedding near by to go too. The hotel was close to lots of restaurants. The staff was friendly. The hotel was okay. It seemed a little outdated.  The bed was comfortable and the AC worked great. The room wasn't in the greatest shape. The refrigerator must have been defrosted or something because the carpet was wet.  The racks holding the towels were rusted. One towel had black marks on it, like leftover mascara or something.  There were holes in the wall around the mirror that had packets of something shoved into them. They really just need to renovate and properly fix wall holes. It wasn't the best room but def not the worst I've stayed in either.  Good if you are looking for a budget hotel. More</t>
   </si>
   <si>
+    <t>Raymond N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r372697703-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>MLK-NT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r367370347-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -264,6 +279,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>RoosterCoop</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r365340128-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -282,6 +300,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Fcafc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r331714671-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Charles G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r325556658-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -321,6 +345,9 @@
     <t>Have stayed there the last several years but this stay I noticed the hotel was not the same. The towels and wash clothes were old and wore out. The room was very dirty as well the parking  lot and exterior. The breakfast buffet was not very well stocked and there was a sign up both days that said we were running low on eggs and please only take a small amount. The room was not very clean. The shower, tub, walls, and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room. The towels did smell clean but they were stained or very thin in places.More</t>
   </si>
   <si>
+    <t>Tammy T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r315412675-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -345,6 +372,9 @@
     <t>The room was not very clean.  The shower, tub, walls,  and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room.   The towels did smell clean but they were stained or very thin in places.  The coffee pot had built up calcium around the water area. On the better side, the bed was very comfortable,  Staff, while not rude, seemed to do the bare minimum and they were not outgoing or friendly.  Not a quality stay in my book though and will not stay at this one , again.More</t>
   </si>
   <si>
+    <t>Traveler61212</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r286270060-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -366,6 +396,9 @@
     <t>I have stayed at many Quality Inns across the nation and i have always been satisfied with the price and quality of each location however,  this location was very disappointing. The man that handled my check in process was very rude, simply handed me the key and sent me on my way, instead the usual hotel orientation i am acustomed to (i.e. breakfast hours and location, check out time, pool hours and location), also didn't bother telling me that the number he wrote on the breakfast card was the wifi password. Now i get to the room and thefirst thing I see  is a very large spider on the wall. Furthermore the carpet was crunchy and the carpet tacks were completely exposed at the bathroom doorway. For a room thats supposed accommodate 4 it only had enough towels for 1. In summary the Quality Inn chain has lost my trust.More</t>
   </si>
   <si>
+    <t>raggarbil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r281578666-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -384,6 +417,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Zerek D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r257108898-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>Got in very late, about 3am, but still was able to check in.  Front desk lady very nice and patient with me.  Slept only a few hours, but still slept very well.Clean and comfortable and quiet.  Complimentary breakfast slightly better than expected.  Good price, very close to UNT.One complaint: the curtains for the windows are translucent and not very private--I saw several people sleeping in their rooms with the lamp on as I was walking to my own room.Would definitely stay here again.</t>
   </si>
   <si>
+    <t>plgetz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r238608235-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -417,6 +456,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Mnyjobz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r225728348-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>F K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r221831400-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>A very good hotel for the price.  The staff there was great, very helpful anytime I needed anything.  While not new, the room was very clean, and housekeeping staff did a great job.  The breakfast was pretty good, and actually served in a nice-sized room (usually everyone's stumbling all over each other in a cramped space which was not the case here).  I will definitely stay here next time I visit Denton.</t>
   </si>
   <si>
+    <t>RobertN78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r207613255-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -468,6 +516,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Ughhhh2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r184304516-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -489,6 +540,9 @@
     <t>This place was terrible!!! The pictures online were very deceiving .... So we decided to call before booking and was told that it was a newer hotel and also that it was only 2 miles from Texas Motor Speedway. Both were lies....it was far from being even close to new and the Speedway was over 15 miles away. The lobby was nice and that that was about it. The stairs getting to our room were a hassle. In addition, you had to be very careful because of obstacles on the wall etc. Then, our room was in much need of repairs. The lamp was broken with wiring exposed, the phone didn't work, and there wasn't a lock on the adjoining door. Our daughter stayed in another room and she didn't even have a lock on her door. Needless to say, we cancelled our reservation for the other two days and moved to another hotel. I definitely would NOT recommend this hotel!!!More</t>
   </si>
   <si>
+    <t>Roger R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r184011617-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -510,6 +564,9 @@
     <t>Over several years I've favored the Quality Inn in Denton because it is a good location, reasonably priced, good service and great breakfast. After having not been there for just over a year, we booked a 3 day stay recently and was somewhat disappointed in that the place is starting to really show it's age.  Even the once fantastic breakfast bar is now only good.  This is not to say that the place is not a good stay, just that it has lost the excellence it once had. I'm hoping to find some improvement by the next time I stay there.  An example of one of the little things that used to be a nice "extra" was having carafes of coffee with several bottles of Torani syrups available along with a popcorn machine.  Now gone! Service was very good with the exception of the young lady in charge of the breakfast room who seemed to be more interested in dozing off that checking the food line.  The desk clerk was very efficient and courteous.More</t>
   </si>
   <si>
+    <t>Jimmy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r155845237-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -528,6 +585,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>Texasleaguer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r152459656-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -541,6 +601,9 @@
   </si>
   <si>
     <t>Informed at checkin that all king units were suffering with hot water issues, I opted for room with 2 fulls. Worked fine for this trip.Much more of a lobby than at most Quality Inns.Easy on/off to I35. Conveniently located.I would suggest a room on the Dallas Drive side of the property. The I35 side must be very noisy.Will definitely stay here when next my travels take me to Denton.</t>
+  </si>
+  <si>
+    <t>Homebody777</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r150608916-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -1063,43 +1126,47 @@
       <c r="A2" t="n">
         <v>1057</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>157412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1113,50 +1180,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1057</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>161759</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1176,50 +1247,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1057</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>173830</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1233,50 +1308,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1057</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>8424</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1294,50 +1373,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1057</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>173831</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1357,50 +1440,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1057</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>173832</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1424,50 +1511,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1057</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>165098</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1481,50 +1572,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1057</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>9859</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -1544,50 +1639,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1057</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>13431</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -1605,50 +1704,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1057</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>173833</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1668,50 +1771,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1057</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>153736</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1725,41 +1832,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1057</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>173834</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
@@ -1788,50 +1899,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1057</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>173835</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -1851,50 +1966,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1057</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>173836</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1908,50 +2027,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1057</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>19004</v>
+      </c>
+      <c r="C16" t="s">
+        <v>153</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -1971,50 +2094,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1057</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>173837</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2034,50 +2161,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1057</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>173838</v>
+      </c>
+      <c r="C18" t="s">
+        <v>166</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="L18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="O18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -2101,50 +2232,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1057</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>40335</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2168,50 +2303,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1057</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>14723</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="J20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2235,50 +2374,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1057</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>30914</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="K21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="L21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2302,41 +2445,45 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1057</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>173839</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -2365,7 +2512,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_610.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_610.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="272">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,84 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Dwight B</t>
-  </si>
-  <si>
-    <t>06/16/2018</t>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r601939670-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>55732</t>
+  </si>
+  <si>
+    <t>98785</t>
+  </si>
+  <si>
+    <t>601939670</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>It alright</t>
+  </si>
+  <si>
+    <t>I b here for few month I pay weekly they have nice big pool and nice rooms. The room r clean. Free breakfast far as other review go that from idiot. Party crap they are not aloud to rent here.  It a nice quite family  motel. It stay tat way. I only write this  review because it wrong pep lie on ther review 2momth ago this motel had 4star good review n the last month a bunch idiot chex n and cause issue they were removed from property.  It a very nice motel for 54.99 a night I b rent motel on off for 10 years I start pay n $15 more night to stay here because they have nice TV pool no bug never seen bug b here seen mayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I b here for few month I pay weekly they have nice big pool and nice rooms. The room r clean. Free breakfast far as other review go that from idiot. Party crap they are not aloud to rent here.  It a nice quite family  motel. It stay tat way. I only write this  review because it wrong pep lie on ther review 2momth ago this motel had 4star good review n the last month a bunch idiot chex n and cause issue they were removed from property.  It a very nice motel for 54.99 a night I b rent motel on off for 10 years I start pay n $15 more night to stay here because they have nice TV pool no bug never seen bug b here seen mayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r488055074-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>488055074</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Don't waste your money</t>
+  </si>
+  <si>
+    <t>This place is a DUMP!  The rooms are dirty, even after they've been "cleaned".  When I checked in, there was a dead bug behind my bathroom door.  I let it go because it could have came in after housekeeping cleaned the room last, but after housekeeping came through the second day and it was still there, I knew for sure that the floors weren't being cleaned.  The coffee maker in the room hadn't even been rinsed out, much less cleaned (I had to wash it myself with bar soap before I could use it), and the ice bucket was cracked and filthy as well.  After washing these items, I wiped down the counter top with a white guest towel and the result was absolutely disgusting.  The air conditioner is on some kind of a regulator because no matter how cold I set the thermostat the room did not cool down - but the unit still cycled on and off like one would expect.  The furniture was stained and the desk chair was broken.  The toilet was mounted incorrectly and thus crooked to sit on.  The phone in my room didn't work and the bathroom door wouldn't close completely.  The staff are rude and treat every one as if your under interrogation for committing a crime instead of being grateful to have people pay them to stay in that dump.  The breakfast (if you can call it that) was pathetic and...This place is a DUMP!  The rooms are dirty, even after they've been "cleaned".  When I checked in, there was a dead bug behind my bathroom door.  I let it go because it could have came in after housekeeping cleaned the room last, but after housekeeping came through the second day and it was still there, I knew for sure that the floors weren't being cleaned.  The coffee maker in the room hadn't even been rinsed out, much less cleaned (I had to wash it myself with bar soap before I could use it), and the ice bucket was cracked and filthy as well.  After washing these items, I wiped down the counter top with a white guest towel and the result was absolutely disgusting.  The air conditioner is on some kind of a regulator because no matter how cold I set the thermostat the room did not cool down - but the unit still cycled on and off like one would expect.  The furniture was stained and the desk chair was broken.  The toilet was mounted incorrectly and thus crooked to sit on.  The phone in my room didn't work and the bathroom door wouldn't close completely.  The staff are rude and treat every one as if your under interrogation for committing a crime instead of being grateful to have people pay them to stay in that dump.  The breakfast (if you can call it that) was pathetic and guest services act like it is something that someone would actually want to steal.  Ugh!  The coffee was terrible .... it was obvious that they brewed it up and then watered it down with another pot of water before serving it.  There were roaches all around the property grounds (thankfully I didn't see any live roaches in my room).  When housekeeping came through on the second day of my stay, they did not leave any new soap, shampoo/conditioner, or coffee items in my room.  I had to walk up to the front desk and get these items, but I had to argue with the desk clerk about giving them to me - he was acting like I wanted to steal a 1 oz. bottle of shampoo and conditioner and a bar of soap that is all used up by washing your hands once.  These people are RUDE and do not deserve your patronage.  I received an invitation from Choice Hotels requesting my feedback on this property so I filled it out completely.  I just got an email from the property manager basically calling me a liar.  This place is disgusting and pathetic.  Trust me, just DON'T stay here.  It's not worth it, even if it's free.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>This place is a DUMP!  The rooms are dirty, even after they've been "cleaned".  When I checked in, there was a dead bug behind my bathroom door.  I let it go because it could have came in after housekeeping cleaned the room last, but after housekeeping came through the second day and it was still there, I knew for sure that the floors weren't being cleaned.  The coffee maker in the room hadn't even been rinsed out, much less cleaned (I had to wash it myself with bar soap before I could use it), and the ice bucket was cracked and filthy as well.  After washing these items, I wiped down the counter top with a white guest towel and the result was absolutely disgusting.  The air conditioner is on some kind of a regulator because no matter how cold I set the thermostat the room did not cool down - but the unit still cycled on and off like one would expect.  The furniture was stained and the desk chair was broken.  The toilet was mounted incorrectly and thus crooked to sit on.  The phone in my room didn't work and the bathroom door wouldn't close completely.  The staff are rude and treat every one as if your under interrogation for committing a crime instead of being grateful to have people pay them to stay in that dump.  The breakfast (if you can call it that) was pathetic and...This place is a DUMP!  The rooms are dirty, even after they've been "cleaned".  When I checked in, there was a dead bug behind my bathroom door.  I let it go because it could have came in after housekeeping cleaned the room last, but after housekeeping came through the second day and it was still there, I knew for sure that the floors weren't being cleaned.  The coffee maker in the room hadn't even been rinsed out, much less cleaned (I had to wash it myself with bar soap before I could use it), and the ice bucket was cracked and filthy as well.  After washing these items, I wiped down the counter top with a white guest towel and the result was absolutely disgusting.  The air conditioner is on some kind of a regulator because no matter how cold I set the thermostat the room did not cool down - but the unit still cycled on and off like one would expect.  The furniture was stained and the desk chair was broken.  The toilet was mounted incorrectly and thus crooked to sit on.  The phone in my room didn't work and the bathroom door wouldn't close completely.  The staff are rude and treat every one as if your under interrogation for committing a crime instead of being grateful to have people pay them to stay in that dump.  The breakfast (if you can call it that) was pathetic and guest services act like it is something that someone would actually want to steal.  Ugh!  The coffee was terrible .... it was obvious that they brewed it up and then watered it down with another pot of water before serving it.  There were roaches all around the property grounds (thankfully I didn't see any live roaches in my room).  When housekeeping came through on the second day of my stay, they did not leave any new soap, shampoo/conditioner, or coffee items in my room.  I had to walk up to the front desk and get these items, but I had to argue with the desk clerk about giving them to me - he was acting like I wanted to steal a 1 oz. bottle of shampoo and conditioner and a bar of soap that is all used up by washing your hands once.  These people are RUDE and do not deserve your patronage.  I received an invitation from Choice Hotels requesting my feedback on this property so I filled it out completely.  I just got an email from the property manager basically calling me a liar.  This place is disgusting and pathetic.  Trust me, just DON'T stay here.  It's not worth it, even if it's free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r471758600-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>471758600</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Vacation stop</t>
+  </si>
+  <si>
+    <t>When we checked we were assigned a room that stunk, tv wouldn't work properly and overall dirty. Got a new room which appeared ok. But a week prior to our visit a water main broke. When we first used shower the was sediment and had to be flushed out before we could use the facilities. The people were nice but I don't think we'll be back.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r468503558-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
-    <t>55732</t>
-  </si>
-  <si>
-    <t>98785</t>
-  </si>
-  <si>
     <t>468503558</t>
   </si>
   <si>
@@ -177,18 +240,12 @@
     <t>Rooms are trash. Bathroom was nasty.Free breakfast if you pay $7.00. I couldn't even get coffee unless I paid $7.00.Stayed a week at $37.00 per night. Had to extend my stay by one night and my card was charged $85.00 .Manager claimed I had to pay the weekend rate.Lots of late nite parking lot activity. Drunks. Loud music. Etc..These people are greedy and I see now why the motel was practically empty.Do yourself a favor. Stay elsewhere.What the idiot manager failed to understand was I was with a crew of 6 staying there that has to come back later for a 3 month stay and we will NOT be staying there.I will see to that.That's the cost of being greedy.  For a few dollars you lost several thousand.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
     <t>Rooms are trash. Bathroom was nasty.Free breakfast if you pay $7.00. I couldn't even get coffee unless I paid $7.00.Stayed a week at $37.00 per night. Had to extend my stay by one night and my card was charged $85.00 .Manager claimed I had to pay the weekend rate.Lots of late nite parking lot activity. Drunks. Loud music. Etc..These people are greedy and I see now why the motel was practically empty.Do yourself a favor. Stay elsewhere.What the idiot manager failed to understand was I was with a crew of 6 staying there that has to come back later for a 3 month stay and we will NOT be staying there.I will see to that.That's the cost of being greedy.  For a few dollars you lost several thousand.More</t>
   </si>
   <si>
-    <t>pops272</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r437871302-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -210,9 +267,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>hwhite1283</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r416226342-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -231,13 +285,53 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed at this hotel because we had a wedding near by to go too. The hotel was close to lots of restaurants. The staff was friendly. The hotel was okay. It seemed a little outdated.  The bed was comfortable and the AC worked great. The room wasn't in the greatest shape. The refrigerator must have been defrosted or something because the carpet was wet.  The racks holding the towels were rusted. One towel had black marks on it, like leftover mascara or something.  There were holes in the wall around the mirror that had packets of something shoved into them. They really just need to renovate and properly fix wall holes. It wasn't the best room but def not the worst I've stayed in either.  Good if you are looking for a budget hotel. More</t>
   </si>
   <si>
-    <t>Raymond N</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r393989618-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>393989618</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Dirty, Poor service</t>
+  </si>
+  <si>
+    <t>Called ahead and asked if they could accommodate our family with five children, with two beds and a sofa. They said yes. Got checked in (against our better judgment - it was old, rooms opened to outside...) Check-in took extra-long - the clerk was new and not knowledgeable; the hotel had also not provided him support or a trainer there with him - every time he had a question he had to call the manager. Apparently he also had to call the manager even to rent out a suite. He said he could only offer breakfast for two adults, we had too many children. When we questioned this, he offered breakfast for two of our children. I guess the others were supposed to sit and watch us eat? 
+We got into the room, which was on the second floor (only accessible by stairs), and found a sofa and one king-size bed only. At check-in we had signed that we would not bring pets into the room; then we found white dog-hair all over the bedspread. The linens (sheets and towels) did not seem clean. There were only two towels in the room. The bathroom was not clean, there was hair in the tub. The sink was scratched up considerably. We sat on the floor with our children and had black dirt on our clothes when we got up. 
+At check-out, there was a clerk who was more experienced and knowledgeable....Called ahead and asked if they could accommodate our family with five children, with two beds and a sofa. They said yes. Got checked in (against our better judgment - it was old, rooms opened to outside...) Check-in took extra-long - the clerk was new and not knowledgeable; the hotel had also not provided him support or a trainer there with him - every time he had a question he had to call the manager. Apparently he also had to call the manager even to rent out a suite. He said he could only offer breakfast for two adults, we had too many children. When we questioned this, he offered breakfast for two of our children. I guess the others were supposed to sit and watch us eat? We got into the room, which was on the second floor (only accessible by stairs), and found a sofa and one king-size bed only. At check-in we had signed that we would not bring pets into the room; then we found white dog-hair all over the bedspread. The linens (sheets and towels) did not seem clean. There were only two towels in the room. The bathroom was not clean, there was hair in the tub. The sink was scratched up considerably. We sat on the floor with our children and had black dirt on our clothes when we got up. At check-out, there was a clerk who was more experienced and knowledgeable. While she apologized for the problems, there should have been someone working alongside the trainee at check-in. The check-out clerk offered breakfast for all of us; at that point we were already loaded into the car and breakfast was closing. Too little too late.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Called ahead and asked if they could accommodate our family with five children, with two beds and a sofa. They said yes. Got checked in (against our better judgment - it was old, rooms opened to outside...) Check-in took extra-long - the clerk was new and not knowledgeable; the hotel had also not provided him support or a trainer there with him - every time he had a question he had to call the manager. Apparently he also had to call the manager even to rent out a suite. He said he could only offer breakfast for two adults, we had too many children. When we questioned this, he offered breakfast for two of our children. I guess the others were supposed to sit and watch us eat? 
+We got into the room, which was on the second floor (only accessible by stairs), and found a sofa and one king-size bed only. At check-in we had signed that we would not bring pets into the room; then we found white dog-hair all over the bedspread. The linens (sheets and towels) did not seem clean. There were only two towels in the room. The bathroom was not clean, there was hair in the tub. The sink was scratched up considerably. We sat on the floor with our children and had black dirt on our clothes when we got up. 
+At check-out, there was a clerk who was more experienced and knowledgeable....Called ahead and asked if they could accommodate our family with five children, with two beds and a sofa. They said yes. Got checked in (against our better judgment - it was old, rooms opened to outside...) Check-in took extra-long - the clerk was new and not knowledgeable; the hotel had also not provided him support or a trainer there with him - every time he had a question he had to call the manager. Apparently he also had to call the manager even to rent out a suite. He said he could only offer breakfast for two adults, we had too many children. When we questioned this, he offered breakfast for two of our children. I guess the others were supposed to sit and watch us eat? We got into the room, which was on the second floor (only accessible by stairs), and found a sofa and one king-size bed only. At check-in we had signed that we would not bring pets into the room; then we found white dog-hair all over the bedspread. The linens (sheets and towels) did not seem clean. There were only two towels in the room. The bathroom was not clean, there was hair in the tub. The sink was scratched up considerably. We sat on the floor with our children and had black dirt on our clothes when we got up. At check-out, there was a clerk who was more experienced and knowledgeable. While she apologized for the problems, there should have been someone working alongside the trainee at check-in. The check-out clerk offered breakfast for all of us; at that point we were already loaded into the car and breakfast was closing. Too little too late.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r385124370-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>385124370</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Do not do it. Drive through as much traffic as you have to in order to avoid this place.  It is old and the rooms smell but that I can live with for the rate.  However when I pulled back the covers and saw blood stained sheets and shredded bedding, I was done.  We asked for new bedding but the message didn't make it through the shift change. We finally went to the desk to get help. It was now 10:30 pm. Eventually the desk clerk (the only person on duty) brought us new sheets.  In the process of putting them on ourselves, we found more blood spatter but this time it was bright red like fresh blood.   Every hotel in the area was booked so we had no choice but to stay.  We ended up with stained sheets (but not blood) and I am not convinced they were laundered. The worst part is that through all of the chaos, the desk clerk acted angry with us!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Do not do it. Drive through as much traffic as you have to in order to avoid this place.  It is old and the rooms smell but that I can live with for the rate.  However when I pulled back the covers and saw blood stained sheets and shredded bedding, I was done.  We asked for new bedding but the message didn't make it through the shift change. We finally went to the desk to get help. It was now 10:30 pm. Eventually the desk clerk (the only person on duty) brought us new sheets.  In the process of putting them on ourselves, we found more blood spatter but this time it was bright red like fresh blood.   Every hotel in the area was booked so we had no choice but to stay.  We ended up with stained sheets (but not blood) and I am not convinced they were laundered. The worst part is that through all of the chaos, the desk clerk acted angry with us!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r372697703-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -258,9 +352,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>MLK-NT</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r367370347-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -279,9 +370,6 @@
     <t>April 2016</t>
   </si>
   <si>
-    <t>RoosterCoop</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r365340128-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -297,10 +385,53 @@
     <t xml:space="preserve">Very pleased with my stay(s) at this hotel.  Staff was courteous and professional. Excellent free breakfast.  The room was clean and comfortable.  The bathroom was well stocked with toiletries.  Favorite thing was the breakfast least favorite was the TV programming offered. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Fcafc</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r364976492-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>364976492</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Pubic hair and stained bed sheets</t>
+  </si>
+  <si>
+    <t>On arrival was meet by a friendly receptionist. But that was as good as are experience was. The room smelt horrible. And the bed sheets were stained and also had pubic hair in them. We was moved to another room but whilst moving baggage we were met but one of the owners who screamed at us WHAT THE HELL ARE YOU DOING. continued to be abusive and told us we was to picky and find some where else to say. We tried to resolve the matter with her husband but after he spoke with his wife he felt it was better we found some where else. After already driving 10 hours we found it extremely difficult to find another hotel as every where else was fully booked. Totally Disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>On arrival was meet by a friendly receptionist. But that was as good as are experience was. The room smelt horrible. And the bed sheets were stained and also had pubic hair in them. We was moved to another room but whilst moving baggage we were met but one of the owners who screamed at us WHAT THE HELL ARE YOU DOING. continued to be abusive and told us we was to picky and find some where else to say. We tried to resolve the matter with her husband but after he spoke with his wife he felt it was better we found some where else. After already driving 10 hours we found it extremely difficult to find another hotel as every where else was fully booked. Totally Disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r334226282-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>334226282</t>
+  </si>
+  <si>
+    <t>12/21/2015</t>
+  </si>
+  <si>
+    <t>Terrible service, terrible room</t>
+  </si>
+  <si>
+    <t>Booked our room in advance through Exp website, or we would have left.
+Lobby is clean, spacious, nice, but the front desk clerk is rude and very slow.
+We received a key to our non smoking room that turned out to be a 1 bed room that smelled like a chain smoker had lived there. Complained about it, and the clerk wanted $26 to change our room to a 2 bed room (since we're travelling with our child, we booked for 2 beds.) We managed to get a different room that, surprise! turned out to have 2 beds and not smell like smoke. For the same price - somehow that $26 charge disappeared after complaining for 15 minutes and threatening to call booking website Exp.
+Room was shabby, needed paint, comforter was torn, bedsheets dingy, room carpet felt dirty, curtains had holes in them, bathroom had poopy stain in toilet, hole in the wall where a previous occupant had opened door too wide and sent the door handle through the wall. At least this one didn't smell.
+Outside the motel needs paint, all the doors exterior paint in multiple tones of fading.  All the rooms open to exterior, like a motel instead of hotel. 
+Breakfast is over at the early hour of 9:30 - so don't sleep late on a weekend. (We were in town for a wedding, got back late so we didn't wake up til 9:00. Got to...Booked our room in advance through Exp website, or we would have left.Lobby is clean, spacious, nice, but the front desk clerk is rude and very slow.We received a key to our non smoking room that turned out to be a 1 bed room that smelled like a chain smoker had lived there. Complained about it, and the clerk wanted $26 to change our room to a 2 bed room (since we're travelling with our child, we booked for 2 beds.) We managed to get a different room that, surprise! turned out to have 2 beds and not smell like smoke. For the same price - somehow that $26 charge disappeared after complaining for 15 minutes and threatening to call booking website Exp.Room was shabby, needed paint, comforter was torn, bedsheets dingy, room carpet felt dirty, curtains had holes in them, bathroom had poopy stain in toilet, hole in the wall where a previous occupant had opened door too wide and sent the door handle through the wall. At least this one didn't smell.Outside the motel needs paint, all the doors exterior paint in multiple tones of fading.  All the rooms open to exterior, like a motel instead of hotel. Breakfast is over at the early hour of 9:30 - so don't sleep late on a weekend. (We were in town for a wedding, got back late so we didn't wake up til 9:00. Got to lobby around 9:45, and breakfast was over.)  We tried calling the front desk from room, but room phone didn't work. Tried calling on cell 3X to find out breakfast time, and no one answered.How they make any money at this motel is beyond me. Teh suq!Positive - it was quiet due to no one being in the rooms next to us, or below us. Our car didn't get broken into.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Booked our room in advance through Exp website, or we would have left.
+Lobby is clean, spacious, nice, but the front desk clerk is rude and very slow.
+We received a key to our non smoking room that turned out to be a 1 bed room that smelled like a chain smoker had lived there. Complained about it, and the clerk wanted $26 to change our room to a 2 bed room (since we're travelling with our child, we booked for 2 beds.) We managed to get a different room that, surprise! turned out to have 2 beds and not smell like smoke. For the same price - somehow that $26 charge disappeared after complaining for 15 minutes and threatening to call booking website Exp.
+Room was shabby, needed paint, comforter was torn, bedsheets dingy, room carpet felt dirty, curtains had holes in them, bathroom had poopy stain in toilet, hole in the wall where a previous occupant had opened door too wide and sent the door handle through the wall. At least this one didn't smell.
+Outside the motel needs paint, all the doors exterior paint in multiple tones of fading.  All the rooms open to exterior, like a motel instead of hotel. 
+Breakfast is over at the early hour of 9:30 - so don't sleep late on a weekend. (We were in town for a wedding, got back late so we didn't wake up til 9:00. Got to...Booked our room in advance through Exp website, or we would have left.Lobby is clean, spacious, nice, but the front desk clerk is rude and very slow.We received a key to our non smoking room that turned out to be a 1 bed room that smelled like a chain smoker had lived there. Complained about it, and the clerk wanted $26 to change our room to a 2 bed room (since we're travelling with our child, we booked for 2 beds.) We managed to get a different room that, surprise! turned out to have 2 beds and not smell like smoke. For the same price - somehow that $26 charge disappeared after complaining for 15 minutes and threatening to call booking website Exp.Room was shabby, needed paint, comforter was torn, bedsheets dingy, room carpet felt dirty, curtains had holes in them, bathroom had poopy stain in toilet, hole in the wall where a previous occupant had opened door too wide and sent the door handle through the wall. At least this one didn't smell.Outside the motel needs paint, all the doors exterior paint in multiple tones of fading.  All the rooms open to exterior, like a motel instead of hotel. Breakfast is over at the early hour of 9:30 - so don't sleep late on a weekend. (We were in town for a wedding, got back late so we didn't wake up til 9:00. Got to lobby around 9:45, and breakfast was over.)  We tried calling the front desk from room, but room phone didn't work. Tried calling on cell 3X to find out breakfast time, and no one answered.How they make any money at this motel is beyond me. Teh suq!Positive - it was quiet due to no one being in the rooms next to us, or below us. Our car didn't get broken into.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r331714671-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -321,9 +452,6 @@
     <t>January 2015</t>
   </si>
   <si>
-    <t>Charles G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r325556658-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -345,9 +473,6 @@
     <t>Have stayed there the last several years but this stay I noticed the hotel was not the same. The towels and wash clothes were old and wore out. The room was very dirty as well the parking  lot and exterior. The breakfast buffet was not very well stocked and there was a sign up both days that said we were running low on eggs and please only take a small amount. The room was not very clean. The shower, tub, walls, and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room. The towels did smell clean but they were stained or very thin in places.More</t>
   </si>
   <si>
-    <t>Tammy T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r315412675-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -372,7 +497,37 @@
     <t>The room was not very clean.  The shower, tub, walls,  and trim in the bathroom had dirt smudged stains on the walls and built up dust and dirt on the floor boards in the entire room. The carpet felt a bit sticky and cold , like maybe it was just steam cleaned but it did not smell good in the room.   The towels did smell clean but they were stained or very thin in places.  The coffee pot had built up calcium around the water area. On the better side, the bed was very comfortable,  Staff, while not rude, seemed to do the bare minimum and they were not outgoing or friendly.  Not a quality stay in my book though and will not stay at this one , again.More</t>
   </si>
   <si>
-    <t>Traveler61212</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r314544402-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>314544402</t>
+  </si>
+  <si>
+    <t>09/28/2015</t>
+  </si>
+  <si>
+    <t>Great hotel for our family!</t>
+  </si>
+  <si>
+    <t>Our family had a great experience at this hotel.  The staff was very friendly, and the rooms were larger than I expected.  We were given extra towels and blankets, and the breakfast was great.  The room was very clean, and we will definitely stay at Quality Inn and Suites in the future!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r286599935-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>286599935</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Bad WiFi</t>
+  </si>
+  <si>
+    <t>Despite being next to the interstate a berm keeps most of the sound away.  Room, with exterior entrance,  was clean and ok.  Did not see the pool. Breakfast was so-so.  I stay at lots of Choice properties and this definitely was not a good breakfast. One cereal choice--the others were empty.  A few pieces of bread.My biggest issue was wi-fi was slow in the evening.  In the morning about 9 am the signal totally disappeared!  Not weak, not struggling--totally gone!!!  The desk clerk said something to the effect of that happens.  NOT acceptable.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r286270060-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -381,9 +536,6 @@
     <t>286270060</t>
   </si>
   <si>
-    <t>07/07/2015</t>
-  </si>
-  <si>
     <t>Will never stay here again</t>
   </si>
   <si>
@@ -396,9 +548,6 @@
     <t>I have stayed at many Quality Inns across the nation and i have always been satisfied with the price and quality of each location however,  this location was very disappointing. The man that handled my check in process was very rude, simply handed me the key and sent me on my way, instead the usual hotel orientation i am acustomed to (i.e. breakfast hours and location, check out time, pool hours and location), also didn't bother telling me that the number he wrote on the breakfast card was the wifi password. Now i get to the room and thefirst thing I see  is a very large spider on the wall. Furthermore the carpet was crunchy and the carpet tacks were completely exposed at the bathroom doorway. For a room thats supposed accommodate 4 it only had enough towels for 1. In summary the Quality Inn chain has lost my trust.More</t>
   </si>
   <si>
-    <t>raggarbil</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r281578666-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -414,12 +563,6 @@
     <t>I remember staying here 1998 when it was a Holiday Inn, so for fun I decided to give it a try for a night, not expecting much. Well, I am sure some things are still from the Holiday Inn era at this Quality Inn, because it really shows its age.And it's not run very professionally. Check-in took what seemed forever. To even get into the breakfast area you have to present a coupon to the "breakfast police". Seems to be owned/run by non-Americans. Simply an unpleasant experience. Maybe this would be OK for $50 but I paid $74.99. Won't be back.</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t>Zerek D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r257108898-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -435,7 +578,37 @@
     <t>Got in very late, about 3am, but still was able to check in.  Front desk lady very nice and patient with me.  Slept only a few hours, but still slept very well.Clean and comfortable and quiet.  Complimentary breakfast slightly better than expected.  Good price, very close to UNT.One complaint: the curtains for the windows are translucent and not very private--I saw several people sleeping in their rooms with the lamp on as I was walking to my own room.Would definitely stay here again.</t>
   </si>
   <si>
-    <t>plgetz</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r257070751-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>257070751</t>
+  </si>
+  <si>
+    <t>Dirty and unorganized</t>
+  </si>
+  <si>
+    <t>we got there late due to our flight being cancelled home.  We were put in a smoking room didn't know they still had those!  It was awful smelly couldn't sleep cause it was cold in the room.  We went to the breakfast the next day the lady working (the owner) treated as if we were trying to crash the complimentary breskfast.  It was just on the worst part was my yogurt was over a month expired when I gave it to her she rolled her eyes and put it back in the fridge GROSS!  We asked to get a nonsmoking room which we did get switch finally.  As we were getting settle another guest came into our room with a key they had assigned two people the same room very awkward!We went to dinner and when we came back our room key didn't work anymore very strange!  The gym they had nothing worked in it either!  I would not stay here ever again! MoreShow less</t>
+  </si>
+  <si>
+    <t>we got there late due to our flight being cancelled home.  We were put in a smoking room didn't know they still had those!  It was awful smelly couldn't sleep cause it was cold in the room.  We went to the breakfast the next day the lady working (the owner) treated as if we were trying to crash the complimentary breskfast.  It was just on the worst part was my yogurt was over a month expired when I gave it to her she rolled her eyes and put it back in the fridge GROSS!  We asked to get a nonsmoking room which we did get switch finally.  As we were getting settle another guest came into our room with a key they had assigned two people the same room very awkward!We went to dinner and when we came back our room key didn't work anymore very strange!  The gym they had nothing worked in it either!  I would not stay here ever again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r256028522-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>256028522</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>A very conveniently placed hotel</t>
+  </si>
+  <si>
+    <t>Very good location and close to Univ. of North Texas, on I 35E north and near the interchange for I35W south to Ft. Worth. 35 minutes to Winstar Casino. We got a smoking room which is hard to find. Was not overly smoky smelling (I am a non-smoker). Breakfast was reasonably good with several hot choices. Hotel is nicely appointed, clean and well maintained. Even had water in the pool. Reasonably priced. Overall very satisfied. Only downside was people can be heard outside the room even at 3AM.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r238608235-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -456,9 +629,6 @@
     <t>November 2014</t>
   </si>
   <si>
-    <t>Mnyjobz</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r225728348-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -477,9 +647,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>F K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r221831400-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -495,7 +662,48 @@
     <t>A very good hotel for the price.  The staff there was great, very helpful anytime I needed anything.  While not new, the room was very clean, and housekeeping staff did a great job.  The breakfast was pretty good, and actually served in a nice-sized room (usually everyone's stumbling all over each other in a cramped space which was not the case here).  I will definitely stay here next time I visit Denton.</t>
   </si>
   <si>
-    <t>RobertN78</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r216720633-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>216720633</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>The maid needs glasses!!</t>
+  </si>
+  <si>
+    <t>We stayed in 5 different hotels during this visit.  We had three great experiences and two less than desirable ones.  This would fit into our less desirable, although it was not the worst.  I would not recommend this hotel because it was not clean.  We booked this hotel relatively late at night at the end of an 8 hour journey.  That was our first mistake.  The desk guy reported that they had already done their paperwork for the night so he had to make our date for the stay the next night which then make us look like a no show and screwed up our Choice points, requiring me to spend a half hour on the phone trying to straighten it out later.  He somehow changed our reservation in the system even though I had our printouts showing when we booked our rooms, and it screwed up subsequent nights because we had initially booked this hotel for two separate nights.  
+So we go up to the room, and my hubby has to go to the restroom after a long drive.  I headed out to get some ice and when I came back, it was my turn for the restroom.  I have attached pics.  It was just gross all the way around.  I get missing the occasional hair, but there were big log black hairs everywhere, all over the toilet, sink, shower etc.  Considering my husband has a buzz cut and...We stayed in 5 different hotels during this visit.  We had three great experiences and two less than desirable ones.  This would fit into our less desirable, although it was not the worst.  I would not recommend this hotel because it was not clean.  We booked this hotel relatively late at night at the end of an 8 hour journey.  That was our first mistake.  The desk guy reported that they had already done their paperwork for the night so he had to make our date for the stay the next night which then make us look like a no show and screwed up our Choice points, requiring me to spend a half hour on the phone trying to straighten it out later.  He somehow changed our reservation in the system even though I had our printouts showing when we booked our rooms, and it screwed up subsequent nights because we had initially booked this hotel for two separate nights.  So we go up to the room, and my hubby has to go to the restroom after a long drive.  I headed out to get some ice and when I came back, it was my turn for the restroom.  I have attached pics.  It was just gross all the way around.  I get missing the occasional hair, but there were big log black hairs everywhere, all over the toilet, sink, shower etc.  Considering my husband has a buzz cut and I have blonde hair and we had only been in the room about a minute,  I am thinking it was not ours...Gross, gross gross.  Seriously, who cleaned this bathroom? Since it was one in the morning and it had taken us so long to check in, we did not go to the front desk.  People are reviewing hotels on all kinds of sites nowadays....it is just unacceptable for the bathroom to be that gross.  There were also hairs all over the floor of the shower and hairs on the floor.  It was all over the place.  The breakfast was mediocre at best.  The only reason I am giving it two stars is there was a wonderful lady working the breakfast area, and she went out of her way to be nice and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We stayed in 5 different hotels during this visit.  We had three great experiences and two less than desirable ones.  This would fit into our less desirable, although it was not the worst.  I would not recommend this hotel because it was not clean.  We booked this hotel relatively late at night at the end of an 8 hour journey.  That was our first mistake.  The desk guy reported that they had already done their paperwork for the night so he had to make our date for the stay the next night which then make us look like a no show and screwed up our Choice points, requiring me to spend a half hour on the phone trying to straighten it out later.  He somehow changed our reservation in the system even though I had our printouts showing when we booked our rooms, and it screwed up subsequent nights because we had initially booked this hotel for two separate nights.  
+So we go up to the room, and my hubby has to go to the restroom after a long drive.  I headed out to get some ice and when I came back, it was my turn for the restroom.  I have attached pics.  It was just gross all the way around.  I get missing the occasional hair, but there were big log black hairs everywhere, all over the toilet, sink, shower etc.  Considering my husband has a buzz cut and...We stayed in 5 different hotels during this visit.  We had three great experiences and two less than desirable ones.  This would fit into our less desirable, although it was not the worst.  I would not recommend this hotel because it was not clean.  We booked this hotel relatively late at night at the end of an 8 hour journey.  That was our first mistake.  The desk guy reported that they had already done their paperwork for the night so he had to make our date for the stay the next night which then make us look like a no show and screwed up our Choice points, requiring me to spend a half hour on the phone trying to straighten it out later.  He somehow changed our reservation in the system even though I had our printouts showing when we booked our rooms, and it screwed up subsequent nights because we had initially booked this hotel for two separate nights.  So we go up to the room, and my hubby has to go to the restroom after a long drive.  I headed out to get some ice and when I came back, it was my turn for the restroom.  I have attached pics.  It was just gross all the way around.  I get missing the occasional hair, but there were big log black hairs everywhere, all over the toilet, sink, shower etc.  Considering my husband has a buzz cut and I have blonde hair and we had only been in the room about a minute,  I am thinking it was not ours...Gross, gross gross.  Seriously, who cleaned this bathroom? Since it was one in the morning and it had taken us so long to check in, we did not go to the front desk.  People are reviewing hotels on all kinds of sites nowadays....it is just unacceptable for the bathroom to be that gross.  There were also hairs all over the floor of the shower and hairs on the floor.  It was all over the place.  The breakfast was mediocre at best.  The only reason I am giving it two stars is there was a wonderful lady working the breakfast area, and she went out of her way to be nice and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r214894903-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>214894903</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Horrible!!       June 7th 2014</t>
+  </si>
+  <si>
+    <t>Worst place I've ever stayed at! Should be named NO Quality Inn and Suites!!I couldn't get the door to open on the 1st room I was given so I haul all of my stuff back to my vehicle and drive to the office only to be told "Oh, you have room 255. You have to lift up on the handle to open that door". He was right and then my next shock was after I finally found a light to turn on. The room hadn't been cleaned and I don't think I would have wanted to stay even if it was. They did finally get me into sort of a clean room only to find out the following morning that the small coffee maker and it's pot didn't match..... I'll keep driving next time.... andI've got pics and video for any No Quality Inn reps that need themMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Worst place I've ever stayed at! Should be named NO Quality Inn and Suites!!I couldn't get the door to open on the 1st room I was given so I haul all of my stuff back to my vehicle and drive to the office only to be told "Oh, you have room 255. You have to lift up on the handle to open that door". He was right and then my next shock was after I finally found a light to turn on. The room hadn't been cleaned and I don't think I would have wanted to stay even if it was. They did finally get me into sort of a clean room only to find out the following morning that the small coffee maker and it's pot didn't match..... I'll keep driving next time.... andI've got pics and video for any No Quality Inn reps that need themMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r207613255-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -516,9 +724,6 @@
     <t>May 2014</t>
   </si>
   <si>
-    <t>Ughhhh2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r184304516-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -540,9 +745,6 @@
     <t>This place was terrible!!! The pictures online were very deceiving .... So we decided to call before booking and was told that it was a newer hotel and also that it was only 2 miles from Texas Motor Speedway. Both were lies....it was far from being even close to new and the Speedway was over 15 miles away. The lobby was nice and that that was about it. The stairs getting to our room were a hassle. In addition, you had to be very careful because of obstacles on the wall etc. Then, our room was in much need of repairs. The lamp was broken with wiring exposed, the phone didn't work, and there wasn't a lock on the adjoining door. Our daughter stayed in another room and she didn't even have a lock on her door. Needless to say, we cancelled our reservation for the other two days and moved to another hotel. I definitely would NOT recommend this hotel!!!More</t>
   </si>
   <si>
-    <t>Roger R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r184011617-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -564,7 +766,37 @@
     <t>Over several years I've favored the Quality Inn in Denton because it is a good location, reasonably priced, good service and great breakfast. After having not been there for just over a year, we booked a 3 day stay recently and was somewhat disappointed in that the place is starting to really show it's age.  Even the once fantastic breakfast bar is now only good.  This is not to say that the place is not a good stay, just that it has lost the excellence it once had. I'm hoping to find some improvement by the next time I stay there.  An example of one of the little things that used to be a nice "extra" was having carafes of coffee with several bottles of Torani syrups available along with a popcorn machine.  Now gone! Service was very good with the exception of the young lady in charge of the breakfast room who seemed to be more interested in dozing off that checking the food line.  The desk clerk was very efficient and courteous.More</t>
   </si>
   <si>
-    <t>Jimmy W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r182225249-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>182225249</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>A good value</t>
+  </si>
+  <si>
+    <t>This hotel had a nice, big lobby and breakfast area. Food was acceptable.  The bed was in good shape and comfortable.  The room was clean.  The building was older but in good shape.  Good location.  Friendly staff.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r179408002-Budget_Host_Inn_Suites-Denton_Texas.html</t>
+  </si>
+  <si>
+    <t>179408002</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>Needs updated</t>
+  </si>
+  <si>
+    <t>we have stayed in a number of Choice Hotels and this was the worst. The room really needed updated as it was in need of fresh paint, the door from the inside looked like someone had tried to get out and not at all appealing, the curtain was coming off the hooks. The air conditioner was not hooked up The gentleman did come down right away to plug it in. The beds were very comfortable.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r155845237-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -585,9 +817,6 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>Texasleaguer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r152459656-Budget_Host_Inn_Suites-Denton_Texas.html</t>
   </si>
   <si>
@@ -601,9 +830,6 @@
   </si>
   <si>
     <t>Informed at checkin that all king units were suffering with hot water issues, I opted for room with 2 fulls. Worked fine for this trip.Much more of a lobby than at most Quality Inns.Easy on/off to I35. Conveniently located.I would suggest a room on the Dallas Drive side of the property. The I35 side must be very noisy.Will definitely stay here when next my travels take me to Denton.</t>
-  </si>
-  <si>
-    <t>Homebody777</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55732-d98785-r150608916-Budget_Host_Inn_Suites-Denton_Texas.html</t>
@@ -1126,47 +1352,43 @@
       <c r="A2" t="n">
         <v>1057</v>
       </c>
-      <c r="B2" t="n">
-        <v>157412</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1180,66 +1402,60 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1057</v>
       </c>
-      <c r="B3" t="n">
-        <v>161759</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
-      </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1254,47 +1470,43 @@
       <c r="A4" t="n">
         <v>1057</v>
       </c>
-      <c r="B4" t="n">
-        <v>173830</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1308,131 +1520,119 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1057</v>
       </c>
-      <c r="B5" t="n">
-        <v>8424</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" t="s">
-        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1057</v>
       </c>
-      <c r="B6" t="n">
-        <v>173831</v>
-      </c>
-      <c r="C6" t="s">
-        <v>80</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
-        <v>86</v>
-      </c>
-      <c r="O6" t="s">
-        <v>71</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1440,263 +1640,237 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1057</v>
       </c>
-      <c r="B7" t="n">
-        <v>173832</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>86</v>
-      </c>
       <c r="O7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1057</v>
       </c>
-      <c r="B8" t="n">
-        <v>165098</v>
-      </c>
-      <c r="C8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>95</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>96</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>98</v>
-      </c>
-      <c r="L8" t="s">
-        <v>99</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>100</v>
-      </c>
       <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1057</v>
       </c>
-      <c r="B9" t="n">
-        <v>9859</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>102</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K9" t="s">
-        <v>105</v>
-      </c>
-      <c r="L9" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>107</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1057</v>
       </c>
-      <c r="B10" t="n">
-        <v>13431</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1704,66 +1878,62 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1057</v>
       </c>
-      <c r="B11" t="n">
-        <v>173833</v>
-      </c>
-      <c r="C11" t="s">
-        <v>118</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
         <v>47</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
       <c r="I11" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1771,194 +1941,184 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1057</v>
       </c>
-      <c r="B12" t="n">
-        <v>153736</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
         <v>47</v>
       </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1057</v>
       </c>
-      <c r="B13" t="n">
-        <v>173834</v>
-      </c>
-      <c r="C13" t="s">
-        <v>133</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" t="s">
-        <v>48</v>
-      </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1057</v>
       </c>
-      <c r="B14" t="n">
-        <v>173835</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1966,54 +2126,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1057</v>
       </c>
-      <c r="B15" t="n">
-        <v>173836</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
         <v>47</v>
       </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2027,66 +2183,62 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1057</v>
       </c>
-      <c r="B16" t="n">
-        <v>19004</v>
-      </c>
-      <c r="C16" t="s">
-        <v>153</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" t="s">
-        <v>48</v>
-      </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="n">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
         <v>3</v>
       </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2094,66 +2246,60 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1057</v>
       </c>
-      <c r="B17" t="n">
-        <v>173837</v>
-      </c>
-      <c r="C17" t="s">
-        <v>159</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
         <v>47</v>
       </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
       </c>
       <c r="Q17" t="s"/>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2161,70 +2307,62 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1057</v>
       </c>
-      <c r="B18" t="n">
-        <v>173838</v>
-      </c>
-      <c r="C18" t="s">
-        <v>166</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
-        <v>48</v>
-      </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>71</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2232,70 +2370,62 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1057</v>
       </c>
-      <c r="B19" t="n">
-        <v>40335</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
         <v>47</v>
       </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2303,70 +2433,62 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1057</v>
       </c>
-      <c r="B20" t="n">
-        <v>14723</v>
-      </c>
-      <c r="C20" t="s">
-        <v>182</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2374,116 +2496,98 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1057</v>
       </c>
-      <c r="B21" t="n">
-        <v>30914</v>
-      </c>
-      <c r="C21" t="s">
-        <v>189</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
         <v>47</v>
       </c>
-      <c r="H21" t="s">
-        <v>48</v>
-      </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="O21" t="s">
-        <v>71</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1057</v>
       </c>
-      <c r="B22" t="n">
-        <v>173839</v>
-      </c>
-      <c r="C22" t="s">
-        <v>195</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
         <v>47</v>
       </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -2494,17 +2598,17 @@
         <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2512,7 +2616,966 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>192</v>
+      </c>
+      <c r="O24" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>194</v>
+      </c>
+      <c r="J25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
         <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>74</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
+      </c>
+      <c r="J28" t="s">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>153</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>224</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>225</v>
+      </c>
+      <c r="J30" t="s">
+        <v>226</v>
+      </c>
+      <c r="K30" t="s">
+        <v>227</v>
+      </c>
+      <c r="L30" t="s">
+        <v>228</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>229</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>230</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" t="s">
+        <v>232</v>
+      </c>
+      <c r="K31" t="s">
+        <v>233</v>
+      </c>
+      <c r="L31" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>235</v>
+      </c>
+      <c r="O31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" t="s">
+        <v>153</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>250</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" t="s">
+        <v>252</v>
+      </c>
+      <c r="K34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L34" t="s">
+        <v>254</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+      <c r="O34" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>256</v>
+      </c>
+      <c r="J35" t="s">
+        <v>257</v>
+      </c>
+      <c r="K35" t="s">
+        <v>258</v>
+      </c>
+      <c r="L35" t="s">
+        <v>259</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>260</v>
+      </c>
+      <c r="O35" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>261</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>262</v>
+      </c>
+      <c r="J36" t="s">
+        <v>263</v>
+      </c>
+      <c r="K36" t="s">
+        <v>264</v>
+      </c>
+      <c r="L36" t="s">
+        <v>265</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>260</v>
+      </c>
+      <c r="O36" t="s">
+        <v>68</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>268</v>
+      </c>
+      <c r="K37" t="s">
+        <v>269</v>
+      </c>
+      <c r="L37" t="s">
+        <v>270</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
